--- a/tests/testsuite_docs/fill_config_file/good/big_expected.xlsx
+++ b/tests/testsuite_docs/fill_config_file/good/big_expected.xlsx
@@ -119,16 +119,16 @@
     <t>d3</t>
   </si>
   <si>
+    <t>n5:2</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>n5:2</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t10</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +147,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -420,11 +426,11 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -839,7 +845,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -855,7 +861,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>19</v>
@@ -918,14 +924,12 @@
       <c r="D12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>29</v>
@@ -935,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="15"/>
     </row>
@@ -951,13 +955,15 @@
         <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="14"/>
       <c r="E15" s="1"/>
